--- a/SVG cheat sheet.xlsx
+++ b/SVG cheat sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>SVG in html</t>
   </si>
@@ -333,6 +333,142 @@
   </si>
   <si>
     <t>Send to back, bring to front by changing order in html</t>
+  </si>
+  <si>
+    <t>section 3 Groups</t>
+  </si>
+  <si>
+    <t>Groups &amp; CSS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GROUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;g&gt; &lt;/g&gt;           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">transform=translate(x, y)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to give </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+  </si>
+  <si>
+    <t>ROTATE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transform=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>translate(x,y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rotate(degree, x, y)    scale(scaleamount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  if you leave x,y out they take 0 0 (upper left)</t>
+    </r>
+  </si>
+  <si>
+    <t>viewBox="x,y_origin  width height"</t>
+  </si>
+  <si>
+    <t>scaling with viewBox</t>
   </si>
 </sst>
 </file>
@@ -1461,6 +1597,348 @@
         <a:xfrm>
           <a:off x="3012280" y="33432750"/>
           <a:ext cx="3828571" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5552381</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>180619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39433500"/>
+          <a:ext cx="5552381" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127242</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5595939" y="39445407"/>
+          <a:ext cx="5723178" cy="3405188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5361905</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>132982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43481625"/>
+          <a:ext cx="5361905" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4774407</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>321471</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4774407" y="44207906"/>
+          <a:ext cx="1143002" cy="345281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>881062</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799411</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>140100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="43469719"/>
+          <a:ext cx="5514286" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2934328</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>544567</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8530266" y="43183969"/>
+          <a:ext cx="8802114" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5464817</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46863000"/>
+          <a:ext cx="5464817" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5459328</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5595937" y="47053500"/>
+          <a:ext cx="5459329" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5584030</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2689860</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11179968" y="47148750"/>
+          <a:ext cx="2701767" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="84" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,6 +2342,42 @@
       </c>
       <c r="B168" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
